--- a/starbucks_analysis.xlsx
+++ b/starbucks_analysis.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dipeshyadav/Desktop/Projects/Starbucks Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B964E1B-ED91-2D4D-BFA7-404043586C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBCDA6F-8A18-4D45-974E-E361D090F104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{BFC3260B-2BDE-C344-8928-0A9E3FAE7CEC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{BFC3260B-2BDE-C344-8928-0A9E3FAE7CEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Exploratory Data Analysis" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -402,14 +402,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA14E4E-51D4-0C4F-A06F-55DC554B35B4}">
-  <dimension ref="A1"/>
+  <dimension ref="C7:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>0.05</v>
+      </c>
+      <c r="D7">
+        <v>2.78</v>
+      </c>
+      <c r="E7">
+        <v>8.89</v>
+      </c>
+      <c r="F7">
+        <v>18.07</v>
+      </c>
+      <c r="G7">
+        <v>1062.28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>